--- a/Planning_Documents/Gannt_Chart.xlsx
+++ b/Planning_Documents/Gannt_Chart.xlsx
@@ -10,16 +10,16 @@
     <sheet name="project" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Actual">(PeriodInActual*(project!$E1&gt;0))*PeriodInPlan</definedName>
-    <definedName name="ActualBeyond">PeriodInActual*(project!$E1&gt;0)</definedName>
+    <definedName name="Actual">(PeriodInActual*(project!$F1&gt;0))*PeriodInPlan</definedName>
+    <definedName name="ActualBeyond">PeriodInActual*(project!$F1&gt;0)</definedName>
     <definedName name="PercentComplete">PercentCompleteBeyond*PeriodInPlan</definedName>
-    <definedName name="PercentCompleteBeyond">(project!A$8=MEDIAN(project!A$8,project!$E1,project!$E1+project!$F1)*(project!$E1&gt;0))*((project!A$8&lt;(INT(project!$E1+project!$F1*project!$G1)))+(project!A$8=project!$E1))*(project!$G1&gt;0)</definedName>
-    <definedName name="period_selected">project!$N$3</definedName>
-    <definedName name="PeriodInActual">project!A$8=MEDIAN(project!A$8,project!$E1,project!$E1+project!$F1-1)</definedName>
-    <definedName name="PeriodInPlan">project!A$8=MEDIAN(project!A$8,project!$C1,project!$C1+project!$D1-1)</definedName>
-    <definedName name="Plan">PeriodInPlan*(project!$C1&gt;0)</definedName>
+    <definedName name="PercentCompleteBeyond">(project!A$13=MEDIAN(project!A$13,project!$F1,project!$F1+project!$G1)*(project!$F1&gt;0))*((project!A$13&lt;(INT(project!$F1+project!$G1*project!$H1)))+(project!A$13=project!$F1))*(project!$H1&gt;0)</definedName>
+    <definedName name="period_selected">project!$O$10</definedName>
+    <definedName name="PeriodInActual">project!A$13=MEDIAN(project!A$13,project!$F1,project!$F1+project!$G1-1)</definedName>
+    <definedName name="PeriodInPlan">project!A$13=MEDIAN(project!A$13,project!$D1,project!$D1+project!$E1-1)</definedName>
+    <definedName name="Plan">PeriodInPlan*(project!$D1&gt;0)</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <t>Plan</t>
   </si>
@@ -47,12 +47,6 @@
   </si>
   <si>
     <t>ACTUAL</t>
-  </si>
-  <si>
-    <t>PERCENT</t>
-  </si>
-  <si>
-    <t>COMPLETE</t>
   </si>
   <si>
     <t>ACTIVITY</t>
@@ -139,91 +133,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> Period Highlight:</t>
-  </si>
-  <si>
-    <t>Project Plan</t>
-  </si>
-  <si>
     <t>HOUR</t>
-  </si>
-  <si>
-    <t>Gantt Chart Plan</t>
-  </si>
-  <si>
-    <t>Assignment Flowchart</t>
-  </si>
-  <si>
-    <t>Pseudocode</t>
-  </si>
-  <si>
-    <t>Pseudocode Actualization</t>
-  </si>
-  <si>
-    <t>Programming Classes</t>
-  </si>
-  <si>
-    <t>Software Development Life Cycle</t>
-  </si>
-  <si>
-    <t>Software Development Methodology</t>
-  </si>
-  <si>
-    <t>Versioning</t>
-  </si>
-  <si>
-    <t>Finite-State Machines</t>
-  </si>
-  <si>
-    <t>Programming Data Structures</t>
-  </si>
-  <si>
-    <t>Project Management</t>
-  </si>
-  <si>
-    <t>LECTURE</t>
-  </si>
-  <si>
-    <t>Pair Programming</t>
-  </si>
-  <si>
-    <t>Pair Programming Testing</t>
-  </si>
-  <si>
-    <t>Bitbucket - Pull Code</t>
-  </si>
-  <si>
-    <t>Bitbucket - Initialization</t>
-  </si>
-  <si>
-    <t>Bitbucket - Push Code</t>
-  </si>
-  <si>
-    <t>Bitbucket - Branch Code</t>
-  </si>
-  <si>
-    <t>Bitbucket - Label Code</t>
-  </si>
-  <si>
-    <t>Development on Paper</t>
-  </si>
-  <si>
-    <t>SCRUM Team - Dummy Sprint</t>
-  </si>
-  <si>
-    <t>SCRUM Team - Creation</t>
-  </si>
-  <si>
-    <t>Tree Data Structure - Design and Implementation</t>
-  </si>
-  <si>
-    <t>Tree Data Structure - Algorithm Creation</t>
-  </si>
-  <si>
-    <t>Class Creation</t>
-  </si>
-  <si>
-    <t>TBA</t>
   </si>
   <si>
     <t>Team Members</t>
@@ -238,16 +148,7 @@
     <t>Glenn Curran</t>
   </si>
   <si>
-    <t>TBC</t>
-  </si>
-  <si>
-    <t>numbers</t>
-  </si>
-  <si>
     <t>s1506145</t>
-  </si>
-  <si>
-    <t>STAGE</t>
   </si>
   <si>
     <t>CONTRIBUTORS</t>
@@ -257,6 +158,123 @@
   </si>
   <si>
     <t>DC</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Complex Calculator</t>
+  </si>
+  <si>
+    <t>&gt; Basic Calculations</t>
+  </si>
+  <si>
+    <t>&gt; Unary Calculations</t>
+  </si>
+  <si>
+    <t>&gt; Graphical User Interface</t>
+  </si>
+  <si>
+    <t>&gt; Multiple Operator Precedence</t>
+  </si>
+  <si>
+    <t>&gt; Testing</t>
+  </si>
+  <si>
+    <t>Group Report</t>
+  </si>
+  <si>
+    <t>&gt; Overview</t>
+  </si>
+  <si>
+    <t>&gt; Description of Adopted Approach</t>
+  </si>
+  <si>
+    <t>&gt; Description of Chosen Software Life-Cycle</t>
+  </si>
+  <si>
+    <t>&gt; Detailed Requirements</t>
+  </si>
+  <si>
+    <t>&gt; Explanation of Software Implementation</t>
+  </si>
+  <si>
+    <t>&gt; Results Discussion</t>
+  </si>
+  <si>
+    <t>&gt; Conclusions</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>&gt; Compiling</t>
+  </si>
+  <si>
+    <t>GC, SC</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>&gt;Gannt Chart</t>
+  </si>
+  <si>
+    <t>&gt;Flowchart</t>
+  </si>
+  <si>
+    <t>&gt;Pseudocode</t>
+  </si>
+  <si>
+    <t>Max Elderfield</t>
+  </si>
+  <si>
+    <t>Sam Chomicz</t>
+  </si>
+  <si>
+    <t>s1507397</t>
+  </si>
+  <si>
+    <t>Brandon Johnson</t>
+  </si>
+  <si>
+    <t>s1407786</t>
+  </si>
+  <si>
+    <t>s1008586</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Student No.</t>
+  </si>
+  <si>
+    <t>Current Hour</t>
+  </si>
+  <si>
+    <t>Initials</t>
+  </si>
+  <si>
+    <t>GC</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>BJ</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>BJ ME</t>
+  </si>
+  <si>
+    <t>COMPLETION</t>
+  </si>
+  <si>
+    <t>Gannt Plan</t>
   </si>
 </sst>
 </file>
@@ -340,13 +358,6 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="72"/>
-      <color theme="4" tint="0.59999389629810485"/>
-      <name val="Corbel"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <b/>
       <sz val="9.5"/>
       <color theme="4" tint="-0.249977111117893"/>
@@ -390,8 +401,15 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color theme="4" tint="0.59999389629810485"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -433,50 +451,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -524,17 +500,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color theme="7"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -546,31 +511,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color theme="7"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -650,6 +591,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -675,7 +684,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -718,91 +727,109 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="6" applyFont="1">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="3" xfId="3" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -816,7 +843,1589 @@
     <cellStyle name="Period Highlight Control" xfId="7"/>
     <cellStyle name="Project Headers" xfId="4"/>
   </cellStyles>
-  <dxfs count="121">
+  <dxfs count="233">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2556,7 +4165,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="6"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2565,16 +4174,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>14</xdr:col>
+          <xdr:col>15</xdr:col>
           <xdr:colOff>66675</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>9</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>14</xdr:col>
+          <xdr:col>15</xdr:col>
           <xdr:colOff>200025</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>21851</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2839,1197 +4448,1629 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor theme="4" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BQ34"/>
+  <dimension ref="B1:BQ47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.25" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.875" style="1" customWidth="1"/>
-    <col min="10" max="17" width="2.75" style="1"/>
-    <col min="18" max="21" width="2.75" style="1" customWidth="1"/>
-    <col min="22" max="28" width="2.75" style="1"/>
+    <col min="7" max="7" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.875" style="1" customWidth="1"/>
+    <col min="11" max="14" width="2.75" style="1"/>
+    <col min="15" max="15" width="4.125" style="1" customWidth="1"/>
+    <col min="16" max="18" width="2.75" style="1"/>
+    <col min="19" max="22" width="2.75" style="1" customWidth="1"/>
+    <col min="23" max="29" width="2.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" ht="92.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="2:69" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:69" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="2:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="48"/>
+    </row>
+    <row r="4" spans="2:69" x14ac:dyDescent="0.3">
+      <c r="B4" s="27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:69" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="27" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:69" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="14"/>
-      <c r="I3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="7">
-        <v>1</v>
-      </c>
-      <c r="O3" s="6"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="T3" s="9"/>
-      <c r="U3" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
-      <c r="AI3" s="1"/>
-      <c r="AJ3" s="1"/>
-      <c r="AK3" s="12"/>
-      <c r="AL3" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT4" s="1"/>
-      <c r="AU4" s="1"/>
-      <c r="AV4" s="1"/>
-      <c r="AW4" s="1"/>
-      <c r="AX4" s="1"/>
-    </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="AT5" s="1"/>
-      <c r="AU5" s="1"/>
-      <c r="AV5" s="1"/>
-    </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="AT6" s="1"/>
+      <c r="D6" s="33" t="s">
+        <v>18</v>
+      </c>
       <c r="AU6" s="1"/>
       <c r="AV6" s="1"/>
+      <c r="AW6" s="1"/>
+      <c r="AX6" s="1"/>
+      <c r="AY6" s="1"/>
     </row>
-    <row r="7" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="18" t="s">
+    <row r="7" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU7" s="1"/>
+      <c r="AV7" s="1"/>
+      <c r="AW7" s="1"/>
+    </row>
+    <row r="8" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B8" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU8" s="1"/>
+      <c r="AV8" s="1"/>
+      <c r="AW8" s="1"/>
+    </row>
+    <row r="9" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B9" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU9" s="1"/>
+      <c r="AV9" s="1"/>
+      <c r="AW9" s="1"/>
+    </row>
+    <row r="10" spans="2:69" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="7">
+        <v>6</v>
+      </c>
+      <c r="P10" s="6"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U10" s="9"/>
+      <c r="V10" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="12"/>
+      <c r="AM10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU10" s="1"/>
+      <c r="AV10" s="1"/>
+      <c r="AW10" s="1"/>
+    </row>
+    <row r="11" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="AU11" s="1"/>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="1"/>
+    </row>
+    <row r="12" spans="2:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="E12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="F12" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="G12" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="38"/>
+      <c r="I12" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="44"/>
+      <c r="X12" s="44"/>
+      <c r="Y12" s="44"/>
+      <c r="Z12" s="44"/>
+      <c r="AA12" s="44"/>
+      <c r="AB12" s="44"/>
+      <c r="AC12" s="44"/>
+      <c r="AD12" s="45"/>
+      <c r="AE12" s="45"/>
+      <c r="AF12" s="45"/>
+      <c r="AG12" s="45"/>
+      <c r="AH12" s="45"/>
+      <c r="AI12" s="45"/>
+      <c r="AJ12" s="45"/>
+      <c r="AK12" s="45"/>
+      <c r="AL12" s="45"/>
+      <c r="AM12" s="45"/>
+      <c r="AN12" s="45"/>
+      <c r="AO12" s="45"/>
+      <c r="AP12" s="45"/>
+      <c r="AQ12" s="45"/>
+      <c r="AR12" s="45"/>
+      <c r="AS12" s="45"/>
+      <c r="AT12" s="45"/>
+      <c r="AU12" s="45"/>
+      <c r="AV12" s="45"/>
+      <c r="AW12" s="45"/>
+      <c r="AX12" s="45"/>
+      <c r="AY12" s="45"/>
+      <c r="AZ12" s="45"/>
+      <c r="BA12" s="45"/>
+      <c r="BB12" s="45"/>
+      <c r="BC12" s="45"/>
+      <c r="BD12" s="45"/>
+      <c r="BE12" s="45"/>
+      <c r="BF12" s="45"/>
+      <c r="BG12" s="45"/>
+      <c r="BH12" s="45"/>
+      <c r="BI12" s="45"/>
+      <c r="BJ12" s="45"/>
+      <c r="BK12" s="45"/>
+      <c r="BL12" s="45"/>
+      <c r="BM12" s="45"/>
+      <c r="BN12" s="45"/>
+      <c r="BO12" s="45"/>
+      <c r="BP12" s="46"/>
+      <c r="BQ12" s="20"/>
+    </row>
+    <row r="13" spans="2:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="36"/>
+      <c r="H13" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="39">
+        <v>1</v>
+      </c>
+      <c r="J13" s="40">
+        <v>2</v>
+      </c>
+      <c r="K13" s="40">
+        <v>3</v>
+      </c>
+      <c r="L13" s="40">
+        <v>4</v>
+      </c>
+      <c r="M13" s="40">
         <v>5</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="N13" s="40">
         <v>6</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="O13" s="40">
+        <v>7</v>
+      </c>
+      <c r="P13" s="40">
+        <v>8</v>
+      </c>
+      <c r="Q13" s="40">
+        <v>9</v>
+      </c>
+      <c r="R13" s="40">
+        <v>10</v>
+      </c>
+      <c r="S13" s="40">
+        <v>11</v>
+      </c>
+      <c r="T13" s="40">
+        <v>12</v>
+      </c>
+      <c r="U13" s="40">
+        <v>13</v>
+      </c>
+      <c r="V13" s="40">
+        <v>14</v>
+      </c>
+      <c r="W13" s="40">
+        <v>15</v>
+      </c>
+      <c r="X13" s="40">
+        <v>16</v>
+      </c>
+      <c r="Y13" s="40">
+        <v>17</v>
+      </c>
+      <c r="Z13" s="40">
+        <v>18</v>
+      </c>
+      <c r="AA13" s="40">
+        <v>19</v>
+      </c>
+      <c r="AB13" s="40">
+        <v>20</v>
+      </c>
+      <c r="AC13" s="40">
+        <v>21</v>
+      </c>
+      <c r="AD13" s="40">
+        <v>22</v>
+      </c>
+      <c r="AE13" s="40">
+        <v>23</v>
+      </c>
+      <c r="AF13" s="40">
+        <v>24</v>
+      </c>
+      <c r="AG13" s="40">
+        <v>25</v>
+      </c>
+      <c r="AH13" s="40">
+        <v>26</v>
+      </c>
+      <c r="AI13" s="40">
+        <v>27</v>
+      </c>
+      <c r="AJ13" s="40">
+        <v>28</v>
+      </c>
+      <c r="AK13" s="40">
+        <v>29</v>
+      </c>
+      <c r="AL13" s="40">
+        <v>30</v>
+      </c>
+      <c r="AM13" s="40">
+        <v>31</v>
+      </c>
+      <c r="AN13" s="40">
+        <v>32</v>
+      </c>
+      <c r="AO13" s="40">
+        <v>33</v>
+      </c>
+      <c r="AP13" s="40">
+        <v>34</v>
+      </c>
+      <c r="AQ13" s="40">
+        <v>35</v>
+      </c>
+      <c r="AR13" s="40">
+        <v>36</v>
+      </c>
+      <c r="AS13" s="40">
+        <v>37</v>
+      </c>
+      <c r="AT13" s="40">
+        <v>38</v>
+      </c>
+      <c r="AU13" s="40">
+        <v>39</v>
+      </c>
+      <c r="AV13" s="40">
+        <v>40</v>
+      </c>
+      <c r="AW13" s="40">
+        <v>41</v>
+      </c>
+      <c r="AX13" s="40">
+        <v>42</v>
+      </c>
+      <c r="AY13" s="40">
+        <v>43</v>
+      </c>
+      <c r="AZ13" s="40">
+        <v>44</v>
+      </c>
+      <c r="BA13" s="40">
+        <v>45</v>
+      </c>
+      <c r="BB13" s="40">
+        <v>46</v>
+      </c>
+      <c r="BC13" s="40">
+        <v>47</v>
+      </c>
+      <c r="BD13" s="40">
         <v>48</v>
       </c>
-      <c r="I7" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="39"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="41"/>
-      <c r="AC7" s="42"/>
-      <c r="AD7" s="42"/>
-      <c r="AE7" s="42"/>
-      <c r="AF7" s="42"/>
-      <c r="AG7" s="42"/>
-      <c r="AH7" s="42"/>
-      <c r="AI7" s="42"/>
-      <c r="AJ7" s="42"/>
-      <c r="AK7" s="42"/>
-      <c r="AL7" s="42"/>
-      <c r="AM7" s="42"/>
-      <c r="AN7" s="42"/>
-      <c r="AO7" s="42"/>
-      <c r="AP7" s="42"/>
-      <c r="AQ7" s="42"/>
-      <c r="AR7" s="42"/>
-      <c r="AS7" s="42"/>
-      <c r="AT7" s="42"/>
-      <c r="AU7" s="42"/>
-      <c r="AV7" s="42"/>
-      <c r="AW7" s="42"/>
-      <c r="AX7" s="42"/>
-      <c r="AY7" s="42"/>
-      <c r="AZ7" s="42"/>
-      <c r="BA7" s="42"/>
-      <c r="BB7" s="42"/>
-      <c r="BC7" s="42"/>
-      <c r="BD7" s="42"/>
-      <c r="BE7" s="42"/>
-      <c r="BF7" s="42"/>
-      <c r="BG7" s="42"/>
-      <c r="BH7" s="42"/>
-      <c r="BI7" s="42"/>
-      <c r="BJ7" s="42"/>
-      <c r="BK7" s="42"/>
-      <c r="BL7" s="42"/>
-      <c r="BM7" s="42"/>
-      <c r="BN7" s="42"/>
-      <c r="BO7" s="42"/>
-      <c r="BP7" s="42"/>
+      <c r="BE13" s="40">
+        <v>49</v>
+      </c>
+      <c r="BF13" s="40">
+        <v>50</v>
+      </c>
+      <c r="BG13" s="40">
+        <v>51</v>
+      </c>
+      <c r="BH13" s="40">
+        <v>52</v>
+      </c>
+      <c r="BI13" s="40">
+        <v>53</v>
+      </c>
+      <c r="BJ13" s="40">
+        <v>54</v>
+      </c>
+      <c r="BK13" s="40">
+        <v>55</v>
+      </c>
+      <c r="BL13" s="40">
+        <v>56</v>
+      </c>
+      <c r="BM13" s="40">
+        <v>57</v>
+      </c>
+      <c r="BN13" s="40">
+        <v>58</v>
+      </c>
+      <c r="BO13" s="40">
+        <v>59</v>
+      </c>
+      <c r="BP13" s="41">
+        <v>60</v>
+      </c>
+      <c r="BQ13" s="1"/>
     </row>
-    <row r="8" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+    <row r="14" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="22">
+        <v>1</v>
+      </c>
+      <c r="D14" s="22">
+        <v>1</v>
+      </c>
+      <c r="E14" s="17">
+        <v>1</v>
+      </c>
+      <c r="F14" s="24">
+        <v>1</v>
+      </c>
+      <c r="G14" s="23">
+        <v>1</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC14"/>
+    </row>
+    <row r="15" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="17">
+        <v>1</v>
+      </c>
+      <c r="D15" s="17">
+        <v>1</v>
+      </c>
+      <c r="E15" s="17">
+        <v>1</v>
+      </c>
+      <c r="F15" s="17">
+        <v>1</v>
+      </c>
+      <c r="G15" s="18">
+        <v>1</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC15"/>
+    </row>
+    <row r="16" spans="2:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="17">
+        <v>2</v>
+      </c>
+      <c r="D16" s="17">
+        <v>1</v>
+      </c>
+      <c r="E16" s="17">
+        <v>2</v>
+      </c>
+      <c r="F16" s="17">
+        <v>1</v>
+      </c>
+      <c r="G16" s="18">
+        <v>1</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC16"/>
+    </row>
+    <row r="17" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="17">
+        <v>3</v>
+      </c>
+      <c r="D17" s="17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="17">
+        <v>3</v>
+      </c>
+      <c r="F17" s="17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="18">
+        <v>1</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC17"/>
+    </row>
+    <row r="18" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="30"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="14"/>
+      <c r="AC18"/>
+    </row>
+    <row r="19" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="14"/>
+      <c r="AC19"/>
+    </row>
+    <row r="20" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC20"/>
+    </row>
+    <row r="21" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="14"/>
+      <c r="AC21"/>
+    </row>
+    <row r="22" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="14"/>
+      <c r="AC22"/>
+    </row>
+    <row r="23" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="14"/>
+      <c r="AC23"/>
+    </row>
+    <row r="24" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="14"/>
+      <c r="AC24"/>
+    </row>
+    <row r="25" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="30"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC25"/>
+    </row>
+    <row r="26" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="40">
-        <v>1</v>
-      </c>
-      <c r="J8" s="40">
-        <v>2</v>
-      </c>
-      <c r="K8" s="40">
-        <v>3</v>
-      </c>
-      <c r="L8" s="40">
-        <v>4</v>
-      </c>
-      <c r="M8" s="40">
-        <v>5</v>
-      </c>
-      <c r="N8" s="40">
-        <v>6</v>
-      </c>
-      <c r="O8" s="40">
-        <v>7</v>
-      </c>
-      <c r="P8" s="40">
-        <v>8</v>
-      </c>
-      <c r="Q8" s="40">
-        <v>9</v>
-      </c>
-      <c r="R8" s="40">
-        <v>10</v>
-      </c>
-      <c r="S8" s="40">
-        <v>11</v>
-      </c>
-      <c r="T8" s="40">
-        <v>12</v>
-      </c>
-      <c r="U8" s="40">
-        <v>13</v>
-      </c>
-      <c r="V8" s="40">
-        <v>14</v>
-      </c>
-      <c r="W8" s="40">
-        <v>15</v>
-      </c>
-      <c r="X8" s="40">
-        <v>16</v>
-      </c>
-      <c r="Y8" s="40">
-        <v>17</v>
-      </c>
-      <c r="Z8" s="40">
-        <v>18</v>
-      </c>
-      <c r="AA8" s="40">
-        <v>19</v>
-      </c>
-      <c r="AB8" s="40">
-        <v>20</v>
-      </c>
-      <c r="AC8" s="40">
-        <v>21</v>
-      </c>
-      <c r="AD8" s="40">
-        <v>22</v>
-      </c>
-      <c r="AE8" s="40">
-        <v>23</v>
-      </c>
-      <c r="AF8" s="40">
-        <v>24</v>
-      </c>
-      <c r="AG8" s="40">
-        <v>25</v>
-      </c>
-      <c r="AH8" s="40">
-        <v>26</v>
-      </c>
-      <c r="AI8" s="40">
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="14"/>
+      <c r="AC26"/>
+    </row>
+    <row r="27" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="AJ8" s="40">
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="14"/>
+      <c r="AC27"/>
+    </row>
+    <row r="28" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="14"/>
+      <c r="AC28"/>
+    </row>
+    <row r="29" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="AK8" s="40">
-        <v>29</v>
-      </c>
-      <c r="AL8" s="40">
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="14"/>
+      <c r="AC29"/>
+    </row>
+    <row r="30" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="AM8" s="40">
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="14"/>
+      <c r="AC30"/>
+    </row>
+    <row r="31" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="AN8" s="40">
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="14"/>
+      <c r="AC31"/>
+    </row>
+    <row r="32" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="AO8" s="40">
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="14"/>
+      <c r="AC32"/>
+    </row>
+    <row r="33" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="AP8" s="40">
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="14"/>
+      <c r="AC33"/>
+    </row>
+    <row r="34" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="31"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="14"/>
+      <c r="AC34"/>
+    </row>
+    <row r="35" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="AQ8" s="40">
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="14"/>
+      <c r="AC35"/>
+    </row>
+    <row r="36" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="AR8" s="40">
-        <v>36</v>
-      </c>
-      <c r="AS8" s="40">
-        <v>37</v>
-      </c>
-      <c r="AT8" s="40">
-        <v>38</v>
-      </c>
-      <c r="AU8" s="40">
-        <v>39</v>
-      </c>
-      <c r="AV8" s="40">
-        <v>40</v>
-      </c>
-      <c r="AW8" s="40">
-        <v>41</v>
-      </c>
-      <c r="AX8" s="40">
-        <v>42</v>
-      </c>
-      <c r="AY8" s="40">
-        <v>43</v>
-      </c>
-      <c r="AZ8" s="40">
-        <v>44</v>
-      </c>
-      <c r="BA8" s="40">
-        <v>45</v>
-      </c>
-      <c r="BB8" s="40">
-        <v>46</v>
-      </c>
-      <c r="BC8" s="40">
-        <v>47</v>
-      </c>
-      <c r="BD8" s="40">
-        <v>48</v>
-      </c>
-      <c r="BE8" s="40">
-        <v>49</v>
-      </c>
-      <c r="BF8" s="40">
-        <v>50</v>
-      </c>
-      <c r="BG8" s="40">
-        <v>51</v>
-      </c>
-      <c r="BH8" s="40">
-        <v>52</v>
-      </c>
-      <c r="BI8" s="40">
-        <v>53</v>
-      </c>
-      <c r="BJ8" s="40">
-        <v>54</v>
-      </c>
-      <c r="BK8" s="40">
-        <v>55</v>
-      </c>
-      <c r="BL8" s="40">
-        <v>56</v>
-      </c>
-      <c r="BM8" s="40">
-        <v>57</v>
-      </c>
-      <c r="BN8" s="40">
-        <v>58</v>
-      </c>
-      <c r="BO8" s="40">
-        <v>59</v>
-      </c>
-      <c r="BP8" s="40">
-        <v>60</v>
-      </c>
-      <c r="BQ8" s="1"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="14"/>
+      <c r="AC36"/>
     </row>
-    <row r="9" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="24">
-        <v>1</v>
-      </c>
-      <c r="D9" s="24">
-        <v>1</v>
-      </c>
-      <c r="E9" s="24">
-        <v>1</v>
-      </c>
-      <c r="F9" s="24">
-        <v>1</v>
-      </c>
-      <c r="G9" s="28">
-        <v>1</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>51</v>
-      </c>
+    <row r="37" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="31"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="14"/>
+      <c r="AC37"/>
     </row>
-    <row r="10" spans="1:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="25">
-        <v>2</v>
-      </c>
-      <c r="D10" s="25">
-        <v>3</v>
-      </c>
-      <c r="E10" s="25">
-        <v>2</v>
-      </c>
-      <c r="F10" s="25">
-        <v>3</v>
-      </c>
-      <c r="G10" s="28">
-        <v>1</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>50</v>
-      </c>
+    <row r="38" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="31"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="14"/>
+      <c r="AC38"/>
     </row>
-    <row r="11" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="25">
-        <v>3</v>
-      </c>
-      <c r="D11" s="25">
-        <v>1</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="28">
-        <v>0</v>
-      </c>
-      <c r="H11" s="15"/>
+    <row r="39" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="31"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="14"/>
+      <c r="AC39"/>
     </row>
-    <row r="12" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="25">
-        <v>4</v>
-      </c>
-      <c r="D12" s="25">
-        <v>1</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="28">
-        <v>0</v>
-      </c>
-      <c r="H12" s="15"/>
+    <row r="40" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="31"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="14"/>
+      <c r="AC40"/>
     </row>
-    <row r="13" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="25">
-        <v>5</v>
-      </c>
-      <c r="D13" s="25">
-        <v>1</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="28">
-        <v>0</v>
-      </c>
-      <c r="H13" s="15"/>
+    <row r="41" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="31"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="14"/>
+      <c r="AC41"/>
     </row>
-    <row r="14" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="25">
-        <v>6</v>
-      </c>
-      <c r="D14" s="25">
-        <v>1</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="28">
-        <v>0</v>
-      </c>
-      <c r="H14" s="15"/>
+    <row r="42" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="31"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="14"/>
+      <c r="AC42"/>
     </row>
-    <row r="15" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="25">
-        <v>7</v>
-      </c>
-      <c r="D15" s="25">
-        <v>1</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="28">
-        <v>0</v>
-      </c>
-      <c r="H15" s="15"/>
+    <row r="43" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="31"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="14"/>
+      <c r="AC43"/>
     </row>
-    <row r="16" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="25">
-        <v>8</v>
-      </c>
-      <c r="D16" s="25">
-        <v>1</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="28">
-        <v>0</v>
-      </c>
-      <c r="H16" s="15"/>
+    <row r="44" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="31"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="14"/>
+      <c r="AC44"/>
     </row>
-    <row r="17" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="25">
-        <v>9</v>
-      </c>
-      <c r="D17" s="25">
-        <v>1</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="28">
-        <v>0</v>
-      </c>
-      <c r="H17" s="15"/>
+    <row r="45" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="31"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="14"/>
+      <c r="AC45"/>
     </row>
-    <row r="18" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="25">
-        <v>10</v>
-      </c>
-      <c r="D18" s="25">
-        <v>1</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="28">
-        <v>0</v>
-      </c>
-      <c r="H18" s="15"/>
+    <row r="46" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="31"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="14"/>
+      <c r="AC46"/>
     </row>
-    <row r="19" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="25">
-        <v>11</v>
-      </c>
-      <c r="D19" s="25">
-        <v>1</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="28">
-        <v>0</v>
-      </c>
-      <c r="H19" s="15"/>
+    <row r="47" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="31"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="14"/>
+      <c r="AC47"/>
     </row>
-    <row r="20" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="25">
-        <v>12</v>
-      </c>
-      <c r="D20" s="25">
-        <v>1</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="28">
-        <v>0</v>
-      </c>
-      <c r="H20" s="15"/>
-    </row>
-    <row r="21" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="25">
-        <v>13</v>
-      </c>
-      <c r="D21" s="25">
-        <v>1</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="28">
-        <v>0</v>
-      </c>
-      <c r="H21" s="15"/>
-    </row>
-    <row r="22" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="25">
-        <v>14</v>
-      </c>
-      <c r="D22" s="25">
-        <v>1</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G22" s="28">
-        <v>0</v>
-      </c>
-      <c r="H22" s="15"/>
-    </row>
-    <row r="23" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="25">
-        <v>15</v>
-      </c>
-      <c r="D23" s="25">
-        <v>1</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="28">
-        <v>0</v>
-      </c>
-      <c r="H23" s="15"/>
-    </row>
-    <row r="24" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="25">
-        <v>16</v>
-      </c>
-      <c r="D24" s="25">
-        <v>1</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G24" s="28">
-        <v>0</v>
-      </c>
-      <c r="H24" s="15"/>
-    </row>
-    <row r="25" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="25">
-        <v>17</v>
-      </c>
-      <c r="D25" s="25">
-        <v>1</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="28">
-        <v>0</v>
-      </c>
-      <c r="H25" s="15"/>
-    </row>
-    <row r="26" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="18.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="18.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <conditionalFormatting sqref="I9:BP10 BP15 I19:BO19">
-    <cfRule type="expression" dxfId="120" priority="121">
+  <mergeCells count="3">
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="G12:G13"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I14:BP14 BP25 I29:BO29 I16:BP16 I19:BP21">
+    <cfRule type="expression" dxfId="232" priority="249">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="123">
+    <cfRule type="expression" dxfId="231" priority="251">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="124">
+    <cfRule type="expression" dxfId="230" priority="252">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="125">
+    <cfRule type="expression" dxfId="229" priority="253">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="126">
+    <cfRule type="expression" dxfId="228" priority="254">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="127">
-      <formula>I$8=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="114" priority="131">
+    <cfRule type="expression" dxfId="227" priority="255">
+      <formula>I$13=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="226" priority="259">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="132">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8:BP8">
-    <cfRule type="expression" dxfId="112" priority="128">
-      <formula>I$8=period_selected</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11:BP11">
-    <cfRule type="expression" dxfId="111" priority="113">
-      <formula>PercentComplete</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="110" priority="114">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="109" priority="115">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="108" priority="116">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="107" priority="117">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="106" priority="118">
-      <formula>I$8=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="105" priority="119">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="104" priority="120">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12:BP12">
-    <cfRule type="expression" dxfId="103" priority="105">
-      <formula>PercentComplete</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="106">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="101" priority="107">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="100" priority="108">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="99" priority="109">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="98" priority="110">
-      <formula>I$8=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="97" priority="111">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="96" priority="112">
+    <cfRule type="expression" dxfId="225" priority="260">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:BP13">
-    <cfRule type="expression" dxfId="95" priority="97">
+    <cfRule type="expression" dxfId="224" priority="256">
+      <formula>I$13=period_selected</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17:BP17">
+    <cfRule type="expression" dxfId="223" priority="241">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="98">
+    <cfRule type="expression" dxfId="222" priority="242">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="99">
+    <cfRule type="expression" dxfId="221" priority="243">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="100">
+    <cfRule type="expression" dxfId="220" priority="244">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="101">
+    <cfRule type="expression" dxfId="219" priority="245">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="102">
-      <formula>I$8=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="89" priority="103">
+    <cfRule type="expression" dxfId="218" priority="246">
+      <formula>I$13=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="217" priority="247">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="104">
+    <cfRule type="expression" dxfId="216" priority="248">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14:BP14">
-    <cfRule type="expression" dxfId="87" priority="89">
+  <conditionalFormatting sqref="I22:BP22">
+    <cfRule type="expression" dxfId="215" priority="233">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="90">
+    <cfRule type="expression" dxfId="214" priority="234">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="91">
+    <cfRule type="expression" dxfId="213" priority="235">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="92">
+    <cfRule type="expression" dxfId="212" priority="236">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="93">
+    <cfRule type="expression" dxfId="211" priority="237">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="94">
-      <formula>I$8=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="81" priority="95">
+    <cfRule type="expression" dxfId="210" priority="238">
+      <formula>I$13=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="209" priority="239">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="96">
+    <cfRule type="expression" dxfId="208" priority="240">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I16:BO16">
-    <cfRule type="expression" dxfId="79" priority="73">
+  <conditionalFormatting sqref="I23:BP23">
+    <cfRule type="expression" dxfId="207" priority="225">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="74">
+    <cfRule type="expression" dxfId="206" priority="226">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="75">
+    <cfRule type="expression" dxfId="205" priority="227">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="76">
+    <cfRule type="expression" dxfId="204" priority="228">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="77">
+    <cfRule type="expression" dxfId="203" priority="229">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="78">
-      <formula>I$8=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="73" priority="79">
+    <cfRule type="expression" dxfId="202" priority="230">
+      <formula>I$13=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="201" priority="231">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="80">
+    <cfRule type="expression" dxfId="200" priority="232">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:BO15">
-    <cfRule type="expression" dxfId="71" priority="65">
+  <conditionalFormatting sqref="I24:BP24">
+    <cfRule type="expression" dxfId="199" priority="217">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="66">
+    <cfRule type="expression" dxfId="198" priority="218">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="67">
+    <cfRule type="expression" dxfId="197" priority="219">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="68">
+    <cfRule type="expression" dxfId="196" priority="220">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="69">
+    <cfRule type="expression" dxfId="195" priority="221">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="70">
-      <formula>I$8=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="65" priority="71">
+    <cfRule type="expression" dxfId="194" priority="222">
+      <formula>I$13=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="193" priority="223">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="72">
+    <cfRule type="expression" dxfId="192" priority="224">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17:BO17">
-    <cfRule type="expression" dxfId="63" priority="57">
+  <conditionalFormatting sqref="I26:BO26">
+    <cfRule type="expression" dxfId="191" priority="201">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="58">
+    <cfRule type="expression" dxfId="190" priority="202">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="59">
+    <cfRule type="expression" dxfId="189" priority="203">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="60">
+    <cfRule type="expression" dxfId="188" priority="204">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="61">
+    <cfRule type="expression" dxfId="187" priority="205">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="62">
-      <formula>I$8=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="57" priority="63">
+    <cfRule type="expression" dxfId="186" priority="206">
+      <formula>I$13=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="185" priority="207">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="64">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18:BO18">
-    <cfRule type="expression" dxfId="55" priority="49">
-      <formula>PercentComplete</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="50">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="53" priority="51">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="52">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="53">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="54">
-      <formula>I$8=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="55">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="56">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20:BO20">
-    <cfRule type="expression" dxfId="47" priority="41">
-      <formula>PercentComplete</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="42">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="43">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="44">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="45">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="46">
-      <formula>I$8=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="41" priority="47">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="48">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I21:BO21">
-    <cfRule type="expression" dxfId="39" priority="33">
-      <formula>PercentComplete</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="34">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="35">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="36">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="35" priority="37">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="38">
-      <formula>I$8=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="39">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="40">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22:BO22">
-    <cfRule type="expression" dxfId="31" priority="25">
-      <formula>PercentComplete</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="26">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="29" priority="27">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="28">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="29">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="30">
-      <formula>I$8=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="31">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="32">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23:BO23">
-    <cfRule type="expression" dxfId="23" priority="17">
-      <formula>PercentComplete</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="18">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="19">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="20">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="21">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="22">
-      <formula>I$8=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="23">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="24">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24:BO24">
-    <cfRule type="expression" dxfId="15" priority="9">
-      <formula>PercentComplete</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="10">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="11">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="13">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="14">
-      <formula>I$8=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="15">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="16">
+    <cfRule type="expression" dxfId="184" priority="208">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25:BO25">
+    <cfRule type="expression" dxfId="183" priority="193">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="182" priority="194">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="181" priority="195">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="180" priority="196">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="179" priority="197">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="178" priority="198">
+      <formula>I$13=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="177" priority="199">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="176" priority="200">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27:BO27">
+    <cfRule type="expression" dxfId="175" priority="185">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="174" priority="186">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="173" priority="187">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="172" priority="188">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="171" priority="189">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="170" priority="190">
+      <formula>I$13=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="169" priority="191">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="168" priority="192">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28:BO28">
+    <cfRule type="expression" dxfId="167" priority="177">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="166" priority="178">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="165" priority="179">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="164" priority="180">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="163" priority="181">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="162" priority="182">
+      <formula>I$13=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="161" priority="183">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="160" priority="184">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30:BO30">
+    <cfRule type="expression" dxfId="159" priority="169">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="158" priority="170">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="157" priority="171">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="156" priority="172">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="155" priority="173">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="154" priority="174">
+      <formula>I$13=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="153" priority="175">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="152" priority="176">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31:BO31">
+    <cfRule type="expression" dxfId="151" priority="161">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="150" priority="162">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="149" priority="163">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="148" priority="164">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="147" priority="165">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="146" priority="166">
+      <formula>I$13=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="145" priority="167">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="144" priority="168">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32:BO32">
+    <cfRule type="expression" dxfId="143" priority="153">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="142" priority="154">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="141" priority="155">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="140" priority="156">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="139" priority="157">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="138" priority="158">
+      <formula>I$13=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="137" priority="159">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="136" priority="160">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33:BO33">
+    <cfRule type="expression" dxfId="135" priority="145">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="134" priority="146">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="133" priority="147">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="148">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="131" priority="149">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="150">
+      <formula>I$13=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="129" priority="151">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="128" priority="152">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34:BO34">
+    <cfRule type="expression" dxfId="127" priority="137">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="126" priority="138">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="125" priority="139">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="124" priority="140">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="123" priority="141">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="122" priority="142">
+      <formula>I$13=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="121" priority="143">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="120" priority="144">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:BO35">
+    <cfRule type="expression" dxfId="119" priority="129">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="130">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="131">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="116" priority="132">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="115" priority="133">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="134">
+      <formula>I$13=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="113" priority="135">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="136">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18:BP18">
+    <cfRule type="expression" dxfId="111" priority="121">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="122">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="109" priority="123">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="124">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="107" priority="125">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="126">
+      <formula>I$13=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="127">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="104" priority="128">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36:BO36">
+    <cfRule type="expression" dxfId="103" priority="113">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="114">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="101" priority="115">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="100" priority="116">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="99" priority="117">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="98" priority="118">
+      <formula>I$13=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="97" priority="119">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="120">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37:BO37">
+    <cfRule type="expression" dxfId="95" priority="105">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="106">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="107">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="92" priority="108">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="109">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="110">
+      <formula>I$13=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="89" priority="111">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="112">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38:BO38">
+    <cfRule type="expression" dxfId="87" priority="97">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="98">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="99">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="100">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="83" priority="101">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="102">
+      <formula>I$13=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="103">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="104">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39:BO39">
+    <cfRule type="expression" dxfId="79" priority="89">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="90">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="77" priority="91">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="92">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="93">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="94">
+      <formula>I$13=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="95">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="96">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41:BO41">
+    <cfRule type="expression" dxfId="71" priority="81">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="82">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="83">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="84">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="85">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="86">
+      <formula>I$13=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="87">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="88">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40:BO40">
+    <cfRule type="expression" dxfId="63" priority="73">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="74">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="75">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="76">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="59" priority="77">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="78">
+      <formula>I$13=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="79">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="80">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I42:BO42">
+    <cfRule type="expression" dxfId="55" priority="65">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="66">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="53" priority="67">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="68">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="69">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="70">
+      <formula>I$13=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="71">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="72">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43:BO43">
+    <cfRule type="expression" dxfId="47" priority="57">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="58">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="59">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="60">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="61">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="62">
+      <formula>I$13=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="63">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="64">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44:BO44">
+    <cfRule type="expression" dxfId="39" priority="49">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="50">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="51">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="52">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="53">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="54">
+      <formula>I$13=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="55">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="56">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I45:BO45">
+    <cfRule type="expression" dxfId="31" priority="41">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="42">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="43">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="44">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="45">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="46">
+      <formula>I$13=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="47">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="48">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I47:BO47">
+    <cfRule type="expression" dxfId="23" priority="33">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="34">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="35">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="36">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="37">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="38">
+      <formula>I$13=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="39">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="40">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I46:BO46">
+    <cfRule type="expression" dxfId="15" priority="25">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="26">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="27">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="28">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="29">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="30">
+      <formula>I$13=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="31">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="32">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15:BP15">
     <cfRule type="expression" dxfId="7" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -4046,7 +6087,7 @@
       <formula>Plan</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="6">
-      <formula>I$8=period_selected</formula>
+      <formula>I$13=period_selected</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="7">
       <formula>MOD(COLUMN(),2)</formula>
@@ -4068,16 +6109,16 @@
               <controlPr defaultSize="0" print="0" autoPict="0" altText="Period Highlight Spin Control">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>14</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>66675</xdr:colOff>
-                    <xdr:row>2</xdr:row>
+                    <xdr:row>9</xdr:row>
                     <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>14</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>200025</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>257175</xdr:rowOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
